--- a/data/regression_name_list891.xlsx
+++ b/data/regression_name_list891.xlsx
@@ -517,7 +517,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -792,7 +792,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -902,7 +902,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1507,7 +1507,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1782,7 +1782,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1892,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2002,7 +2002,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2167,7 +2167,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2222,7 +2222,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2332,7 +2332,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2387,7 +2387,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2442,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4635,7 +4635,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4697,7 +4697,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4910,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5020,7 +5020,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5075,7 +5075,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5130,7 +5130,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5240,7 +5240,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>congenital</t>
+          <t>misc_long_term</t>
         </is>
       </c>
     </row>
